--- a/po/data/test_data/baidu_elements.xlsx
+++ b/po/data/test_data/baidu_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\automated_ui\po\data\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\automated_ui\po\data\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7402FAEC-B052-43FF-99A4-FEF133BA259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003B5C8-6D7E-4A7E-AF76-CD7FE4777D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>baidu</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +35,26 @@
   </si>
   <si>
     <t>百度搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>变量名称</t>
+  </si>
+  <si>
+    <t>定位方式</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,10 +97,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +113,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,20 +127,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -146,10 +145,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,59 +452,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
